--- a/biology/Médecine/Christoph_Heinrich_Pfaff/Christoph_Heinrich_Pfaff.xlsx
+++ b/biology/Médecine/Christoph_Heinrich_Pfaff/Christoph_Heinrich_Pfaff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Heinrich Pfaff ou Christoph Heinrich Pfaff (2 mars 1773, Stuttgart - 24 avril 1852, Kiel, duché de Holstein) est un médecin wurtembergeois, ayant également travaillé comme chimiste et physicien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études de médecine à Stuttgart jusqu'en 1793, puis s'installe à Göttingen, où il travaille sur le galvanisme.
 En 1797, il devient "professeur extraordinaire" à l'université de Kiel, puis, en 1801, est nommé professeur de chimie, physique et médecine. Il s'intéresse alors particulièrement à la chimie pharmaceutique, conduisant ainsi à la rédaction de son ouvrage le plus connu (System der Materia Medica nach chemischen Principien, 1808-1824). Il isole en particulier de nombreuses substances naturelles telles que l'acide caféique ou l'acide lichénique.
